--- a/program/exportowane.xlsx
+++ b/program/exportowane.xlsx
@@ -498,14 +498,14 @@
         <v>140</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[28.0, 20.0, 12.0, 20.0, 15.0, 33.0, 17.0, 60.0]</t>
+          <t>[45.0, 30.0, 39.0, 15.0, 45.0, 32.0, 42.0, 41.0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
